--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -1,49 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcadiso365-my.sharepoint.com/personal/vijaykumar_mani_arcadis_com/Documents/Documents/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC10485C215F79FC5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AACF1F4-7353-4982-B465-CA613C21A99E}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="predictions" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -85,44 +147,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,15 +211,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -184,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -196,155 +256,238 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Toss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Match Winner</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>22-03-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KKR vs RCB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>16:30:38</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>23-03-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CSK vs MI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:40:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>23-03-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SRH vs RR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>13:40:43</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,33 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>24-03-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DC vs LSG</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17:10:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,33 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25-03-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GT vs PBKS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10:17:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,33 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-03-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RR vs KKR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:43:09</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,6 +622,33 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>27-03-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SRH vs LSG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16:30:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,33 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>28-03-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CSK vs RCB</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18:12:13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,6 +676,33 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>29-03-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GT vs MI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>17:25:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,6 +703,33 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>30-03-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DC vs SRH</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14:03:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,6 +730,33 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>30-03-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RR vs CSK</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>14:03:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,33 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>31-03-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MI vs KKR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:09:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>17:09:59</t>
+          <t>17:10:26</t>
         </is>
       </c>
     </row>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,6 +784,33 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>01-04-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LSG vs PBKS</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16:37:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,6 +811,33 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02-04-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RCB vs GT</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>16:53:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,6 +838,33 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03-04-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KKR vs SRH</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10:37:42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SRH</t>
+          <t>KKR</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:37:42</t>
+          <t>18:41:20</t>
         </is>
       </c>
     </row>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,6 +865,33 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>04-04-2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>LSG vs MI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>17:25:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,6 +892,33 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>05-04-2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PBKS vs RR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15:25:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,6 +919,33 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>06-04-2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KKR vs LSG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:51:01</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>14:51:01</t>
+          <t>14:51:17</t>
         </is>
       </c>
     </row>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,6 +946,33 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07-04-2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MI vs RCB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16:39:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -973,6 +973,33 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-04-2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>PBKS vs CSK</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>17:39:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,6 +1000,33 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09-04-2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>GT vs RR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>15:57:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,33 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>10-04-2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RCB vs DC</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17:19:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1054,6 +1054,33 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>11-04-2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CSK vs KKR</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>13:35:48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,6 +1081,33 @@
         </is>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12-04-2025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SRH vs PBKS</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16:08:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -1094,17 +1094,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>SRH</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SRH</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>16:08:05</t>
+          <t>16:09:22</t>
         </is>
       </c>
     </row>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1108,6 +1108,33 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>13-04-2025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RR vs RCB</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>13:29:06</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,6 +1135,33 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>13-04-2025</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DC vs MI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>13:29:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,6 +1162,33 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>14-04-2025</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LSG vs CSK</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>18:13:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,33 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>15-04-2025</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PBKS vs KKR</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>13:35:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1216,6 +1216,33 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>16-04-2025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DC vs RR</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>18:23:54</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,6 +1243,33 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17-04-2025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MI vs SRH</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>18:02:26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,6 +1270,33 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>18-04-2025</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RCB vs PBKS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>17:14:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,6 +1297,33 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>19-04-2025</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GT vs DC</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14:54:48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:54:48</t>
+          <t>14:54:52</t>
         </is>
       </c>
     </row>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1324,33 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>19-04-2025</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RR vs LSG</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>14:55:13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,6 +1351,33 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20-04-2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PBKS vs RCB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>14:08:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1378,6 +1378,33 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20-04-2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MI vs CSK</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>14:08:12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,6 +1405,33 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>21-04-2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>KKR vs GT</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>16:50:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1432,6 +1432,33 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>22-04-2025</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LSG vs DC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>18:17:33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,6 +1459,33 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SRH vs MI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>17:17:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1486,6 +1486,33 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>24-04-2025</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RCB vs RR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>17:40:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,6 +1513,33 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CSK vs SRH</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>17:05:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,6 +1540,33 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>KKR vs PBKS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>14:18:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,6 +1567,33 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>27-04-2025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MI vs LSG</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>14:17:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,6 +1594,33 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>27-04-2025</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DC vs RCB</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>14:17:45</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1621,6 +1621,33 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RR vs GT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>16:12:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1648,6 +1648,33 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>01-05-2025</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RR vs MI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>17:48:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,6 +1675,33 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03-05-2025</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RCB vs CSK</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14:14:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1702,6 +1702,33 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>04-05-2025</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KKR vs RR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>12:49:58</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1729,6 +1729,33 @@
         </is>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>04-05-2025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PBKS vs LSG</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>12:50:49</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,6 +1756,33 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>06-05-2025</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MI vs GT</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>16:21:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,6 +1783,33 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>07-05-2025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>KKR vs CSK</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>16:45:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,6 +1810,33 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PBKS vs DC</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>18:08:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1837,6 +1837,33 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>17-05-2025</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RCB vs KKR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>18:31:18</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1864,6 +1864,33 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>18-05-2025</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DC vs GT</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12:36:41</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1891,6 +1891,33 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>18-05-2025</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RR vs PBKS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>12:36:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,6 +1918,33 @@
         </is>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>19-05-2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LSG vs SRH</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>18:16:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1945,6 +1945,33 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20-05-2025</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CSK vs RR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>18:17:37</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,6 +1972,33 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>21-05-2025</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MI vs DC</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>18:31:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1999,6 +1999,33 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GT vs LSG</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>18:11:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2026,6 +2026,33 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>23-05-2025</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RCB vs SRH</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>18:41:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2053,33 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>24-05-2025</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PBKS vs DC</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>18:36:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2080,6 +2080,33 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>25-05-2025</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GT vs CSK</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CSK</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>14:14:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,6 +2107,33 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>25-05-2025</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SRH vs KKR</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SRH</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>KKR</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>14:15:11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2134,6 +2134,33 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>26-05-2025</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PBKS vs MI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>17:47:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2161,6 +2161,33 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>27-05-2025</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LSG vs RCB</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LSG</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>18:33:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2188,6 +2188,33 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PBKS vs RCB</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>PBKS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>18:58:11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2215,6 +2215,33 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>30-05-2025</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GT vs MI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>18:25:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2242,6 +2242,33 @@
         </is>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>01-06-2025</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PBKS vs MI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>17:01:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2269,6 +2269,33 @@
         </is>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>03-06-2025</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RCB vs PBKS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>RCB</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>16:27:11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/predictions_karunya.xlsx
+++ b/predictions_karunya.xlsx
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>RCB</t>
+          <t>PBKS</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>16:27:11</t>
+          <t>18:41:52</t>
         </is>
       </c>
     </row>
